--- a/data_samples/archived/week-4/afl-reduced_results.xlsx
+++ b/data_samples/archived/week-4/afl-reduced_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\2021-week-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E282AA-26D6-48CA-ADD1-B12FB25B3555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000BEACB-8371-4AB1-B55E-4CA292B9BBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$A$2319</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -603,14 +606,14 @@
   <dimension ref="A1:H2319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="4" customWidth="1"/>
@@ -664,10 +667,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="5">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="H2" s="5">
-        <v>3.35</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -693,7 +696,7 @@
         <v>1.62</v>
       </c>
       <c r="H3" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -716,10 +719,10 @@
         <v>64</v>
       </c>
       <c r="G4" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H4" s="5">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -742,10 +745,10 @@
         <v>71</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="H5" s="5">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,10 +771,10 @@
         <v>68</v>
       </c>
       <c r="G6" s="5">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="H6" s="5">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -794,10 +797,10 @@
         <v>117</v>
       </c>
       <c r="G7" s="5">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="H7" s="5">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -820,10 +823,10 @@
         <v>85</v>
       </c>
       <c r="G8" s="5">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H8" s="5">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -846,10 +849,10 @@
         <v>167</v>
       </c>
       <c r="G9" s="5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,10 +875,10 @@
         <v>73</v>
       </c>
       <c r="G10" s="5">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H10" s="5">
-        <v>2</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,10 +901,10 @@
         <v>56</v>
       </c>
       <c r="G11" s="5">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H11" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -924,10 +927,10 @@
         <v>93</v>
       </c>
       <c r="G12" s="5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H12" s="5">
-        <v>2.0499999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -950,10 +953,10 @@
         <v>78</v>
       </c>
       <c r="G13" s="5">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="H13" s="5">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -979,7 +982,7 @@
         <v>1.35</v>
       </c>
       <c r="H14" s="5">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1002,10 +1005,10 @@
         <v>91</v>
       </c>
       <c r="G15" s="5">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H15" s="5">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1031,7 +1034,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H16" s="5">
-        <v>6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,10 +1057,10 @@
         <v>88</v>
       </c>
       <c r="G17" s="5">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H17" s="5">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1086,7 @@
         <v>1.5</v>
       </c>
       <c r="H18" s="5">
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1091,19 +1094,19 @@
         <v>44280</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="F19">
         <v>106</v>
-      </c>
-      <c r="F19">
-        <v>85</v>
       </c>
       <c r="G19" s="5">
         <v>2.5</v>
@@ -1132,10 +1135,10 @@
         <v>58</v>
       </c>
       <c r="G20" s="5">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="H20" s="5">
-        <v>3.75</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1158,10 +1161,10 @@
         <v>86</v>
       </c>
       <c r="G21" s="5">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H21" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,10 +1187,10 @@
         <v>117</v>
       </c>
       <c r="G22" s="5">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H22" s="5">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1213,7 @@
         <v>125</v>
       </c>
       <c r="G23" s="5">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H23" s="5">
         <v>4.3499999999999996</v>
@@ -1236,10 +1239,10 @@
         <v>92</v>
       </c>
       <c r="G24" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H24" s="5">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1262,10 +1265,10 @@
         <v>91</v>
       </c>
       <c r="G25" s="5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H25" s="5">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1288,10 +1291,10 @@
         <v>58</v>
       </c>
       <c r="G26" s="5">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H26" s="5">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1317,7 +1320,7 @@
         <v>1.75</v>
       </c>
       <c r="H27" s="5">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1340,7 +1343,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="5">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H28" s="5">
         <v>3.14</v>
@@ -60913,6 +60916,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A2319" xr:uid="{0B146581-BE1F-4902-924A-EF90745C4B34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H501">
     <sortCondition descending="1" ref="A1:A501"/>
   </sortState>
